--- a/snickers.xlsx
+++ b/snickers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/CD_2019-P2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F30685-1F4B-A249-BA11-8C81FEA4C7F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE6CDFD-3B60-1245-9586-B5EE5DC1F750}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1951,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="B234" sqref="B234"/>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="B305" sqref="B305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3825,340 +3825,544 @@
       <c r="A234" t="s">
         <v>224</v>
       </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>225</v>
       </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>226</v>
       </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>227</v>
       </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>228</v>
       </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>229</v>
       </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>12</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/snickers.xlsx
+++ b/snickers.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/CD_2019-P2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Documents/CD_2019-P2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE6CDFD-3B60-1245-9586-B5EE5DC1F750}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54089BD5-EE38-A547-961A-0B2FAFCBA422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Teste!$A$1:$A$201</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Treinamento!$A$1:$A$301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Teste!$A$1:$B$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Treinamento!$A$1:$B$301</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="482">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1548,6 +1548,9 @@
   </si>
   <si>
     <t>alguém dê um snickers à sãozita. https://t.co/ur5pw7ssb5</t>
+  </si>
+  <si>
+    <t>Relevância</t>
   </si>
 </sst>
 </file>
@@ -1951,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="B305" sqref="B305"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1964,6 +1967,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -4366,7 +4372,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A301" xr:uid="{6A79F78F-3E47-924D-A6CB-2F0BDCF0C733}"/>
+  <autoFilter ref="A1:B301" xr:uid="{FFAFBEF7-6E56-074A-937F-70352DFBD42B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4376,7 +4382,7 @@
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B201"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5990,7 +5996,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A201" xr:uid="{93E0DD5B-F84C-2646-8D23-E97E9B1E5DAF}"/>
+  <autoFilter ref="A1:B201" xr:uid="{CFD5181E-5C1D-7C42-B161-8B3CF1F9C4FB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/snickers.xlsx
+++ b/snickers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Documents/CD_2019-P2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54089BD5-EE38-A547-961A-0B2FAFCBA422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19E78FB-B37C-B745-A2BB-7743FAE3E234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1955,7 +1955,7 @@
   <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/snickers.xlsx
+++ b/snickers.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Documents/CD_2019-P2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe Valente\Documents\INSPER\Ciencia dos dados\CD_2019-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19E78FB-B37C-B745-A2BB-7743FAE3E234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="482">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1556,7 +1555,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1707,23 +1706,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1759,23 +1741,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1951,19 +1916,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="150.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1971,7 +1936,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1979,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1987,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1995,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2003,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2011,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2019,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2027,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2035,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2043,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2051,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2059,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2067,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2075,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2083,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2091,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2099,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2107,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2115,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2123,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2131,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2139,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2147,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2155,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2163,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2171,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2179,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2187,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2195,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2203,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2211,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2219,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2227,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2235,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2243,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2251,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2259,7 +2224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2267,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2275,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2283,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2291,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2299,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2307,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2315,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2323,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2331,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2339,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2347,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2355,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2363,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2371,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2379,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2387,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2395,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2403,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2411,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2419,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2427,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2435,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2443,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2451,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2459,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2467,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2475,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2483,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2491,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2499,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2507,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2515,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2523,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2531,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2539,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2547,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2555,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2563,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2571,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2579,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2587,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2595,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2603,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2611,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2619,7 +2584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2627,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2635,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -2643,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2651,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -2659,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2667,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2675,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2683,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -2691,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -2699,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -2707,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -2715,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2723,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2731,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -2739,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -2747,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -2755,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -2763,7 +2728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -2771,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -2779,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -2787,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -2795,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -2803,7 +2768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -2811,7 +2776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -2819,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -2827,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -2835,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -2843,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -2851,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -2859,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -2867,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -2875,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -2883,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -2891,7 +2856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -2899,7 +2864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -2907,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -2915,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -2923,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -2931,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>106</v>
       </c>
@@ -2939,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -2947,7 +2912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -2955,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -2963,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -2971,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -2979,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -2987,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -2995,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -3003,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -3011,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -3019,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -3027,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -3035,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -3043,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>52</v>
       </c>
@@ -3051,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>133</v>
       </c>
@@ -3059,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>134</v>
       </c>
@@ -3067,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>135</v>
       </c>
@@ -3075,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>136</v>
       </c>
@@ -3083,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>137</v>
       </c>
@@ -3091,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>138</v>
       </c>
@@ -3099,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>139</v>
       </c>
@@ -3107,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>140</v>
       </c>
@@ -3115,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>141</v>
       </c>
@@ -3123,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>142</v>
       </c>
@@ -3131,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>143</v>
       </c>
@@ -3139,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>144</v>
       </c>
@@ -3147,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -3155,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>145</v>
       </c>
@@ -3163,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>146</v>
       </c>
@@ -3171,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>147</v>
       </c>
@@ -3179,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>148</v>
       </c>
@@ -3187,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>73</v>
       </c>
@@ -3195,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>149</v>
       </c>
@@ -3203,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>150</v>
       </c>
@@ -3211,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>151</v>
       </c>
@@ -3219,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>152</v>
       </c>
@@ -3227,7 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>153</v>
       </c>
@@ -3235,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>154</v>
       </c>
@@ -3243,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>155</v>
       </c>
@@ -3251,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>156</v>
       </c>
@@ -3259,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>157</v>
       </c>
@@ -3267,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>158</v>
       </c>
@@ -3275,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>159</v>
       </c>
@@ -3283,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>160</v>
       </c>
@@ -3291,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>161</v>
       </c>
@@ -3299,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>162</v>
       </c>
@@ -3307,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>163</v>
       </c>
@@ -3315,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>164</v>
       </c>
@@ -3323,7 +3288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>165</v>
       </c>
@@ -3331,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>166</v>
       </c>
@@ -3339,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>167</v>
       </c>
@@ -3347,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>168</v>
       </c>
@@ -3355,7 +3320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>169</v>
       </c>
@@ -3363,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>170</v>
       </c>
@@ -3371,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>171</v>
       </c>
@@ -3379,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>172</v>
       </c>
@@ -3387,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>173</v>
       </c>
@@ -3395,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>12</v>
       </c>
@@ -3403,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>174</v>
       </c>
@@ -3411,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>175</v>
       </c>
@@ -3419,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>176</v>
       </c>
@@ -3427,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>177</v>
       </c>
@@ -3435,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>178</v>
       </c>
@@ -3443,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>179</v>
       </c>
@@ -3451,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>180</v>
       </c>
@@ -3459,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>166</v>
       </c>
@@ -3467,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>181</v>
       </c>
@@ -3475,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>182</v>
       </c>
@@ -3483,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>183</v>
       </c>
@@ -3491,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>184</v>
       </c>
@@ -3499,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>185</v>
       </c>
@@ -3507,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>186</v>
       </c>
@@ -3515,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>187</v>
       </c>
@@ -3523,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>188</v>
       </c>
@@ -3531,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>189</v>
       </c>
@@ -3539,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>190</v>
       </c>
@@ -3547,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>191</v>
       </c>
@@ -3555,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>192</v>
       </c>
@@ -3563,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>193</v>
       </c>
@@ -3571,7 +3536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>194</v>
       </c>
@@ -3579,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>195</v>
       </c>
@@ -3587,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>196</v>
       </c>
@@ -3595,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>197</v>
       </c>
@@ -3603,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>48</v>
       </c>
@@ -3611,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>198</v>
       </c>
@@ -3619,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>109</v>
       </c>
@@ -3627,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>199</v>
       </c>
@@ -3635,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>200</v>
       </c>
@@ -3643,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>201</v>
       </c>
@@ -3651,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>202</v>
       </c>
@@ -3659,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>203</v>
       </c>
@@ -3667,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>204</v>
       </c>
@@ -3675,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>205</v>
       </c>
@@ -3683,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>206</v>
       </c>
@@ -3691,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>207</v>
       </c>
@@ -3699,7 +3664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>208</v>
       </c>
@@ -3707,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>209</v>
       </c>
@@ -3715,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>210</v>
       </c>
@@ -3723,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>211</v>
       </c>
@@ -3731,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>212</v>
       </c>
@@ -3739,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>213</v>
       </c>
@@ -3747,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>214</v>
       </c>
@@ -3755,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>215</v>
       </c>
@@ -3763,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>216</v>
       </c>
@@ -3771,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>217</v>
       </c>
@@ -3779,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>218</v>
       </c>
@@ -3787,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>219</v>
       </c>
@@ -3795,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>220</v>
       </c>
@@ -3803,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>221</v>
       </c>
@@ -3811,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>222</v>
       </c>
@@ -3819,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>223</v>
       </c>
@@ -3827,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>224</v>
       </c>
@@ -3835,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>225</v>
       </c>
@@ -3843,7 +3808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>226</v>
       </c>
@@ -3851,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>227</v>
       </c>
@@ -3859,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>228</v>
       </c>
@@ -3867,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>229</v>
       </c>
@@ -3875,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>230</v>
       </c>
@@ -3883,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>231</v>
       </c>
@@ -3891,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>232</v>
       </c>
@@ -3899,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>233</v>
       </c>
@@ -3907,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>234</v>
       </c>
@@ -3915,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>235</v>
       </c>
@@ -3923,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>236</v>
       </c>
@@ -3931,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>237</v>
       </c>
@@ -3939,7 +3904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>238</v>
       </c>
@@ -3947,7 +3912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>239</v>
       </c>
@@ -3955,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>240</v>
       </c>
@@ -3963,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>241</v>
       </c>
@@ -3971,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>242</v>
       </c>
@@ -3979,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>243</v>
       </c>
@@ -3987,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>244</v>
       </c>
@@ -3995,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>245</v>
       </c>
@@ -4003,7 +3968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>246</v>
       </c>
@@ -4011,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>247</v>
       </c>
@@ -4019,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>248</v>
       </c>
@@ -4027,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>249</v>
       </c>
@@ -4035,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>228</v>
       </c>
@@ -4043,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>250</v>
       </c>
@@ -4051,7 +4016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>251</v>
       </c>
@@ -4059,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>252</v>
       </c>
@@ -4067,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>253</v>
       </c>
@@ -4075,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>254</v>
       </c>
@@ -4083,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>255</v>
       </c>
@@ -4091,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>256</v>
       </c>
@@ -4099,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>257</v>
       </c>
@@ -4107,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>258</v>
       </c>
@@ -4115,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>259</v>
       </c>
@@ -4123,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>260</v>
       </c>
@@ -4131,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>261</v>
       </c>
@@ -4139,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>262</v>
       </c>
@@ -4147,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>263</v>
       </c>
@@ -4155,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>264</v>
       </c>
@@ -4163,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>265</v>
       </c>
@@ -4171,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>266</v>
       </c>
@@ -4179,7 +4144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>267</v>
       </c>
@@ -4187,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>268</v>
       </c>
@@ -4195,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>269</v>
       </c>
@@ -4203,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>270</v>
       </c>
@@ -4211,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>271</v>
       </c>
@@ -4219,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>272</v>
       </c>
@@ -4227,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>273</v>
       </c>
@@ -4235,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>274</v>
       </c>
@@ -4243,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>275</v>
       </c>
@@ -4251,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>276</v>
       </c>
@@ -4259,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>277</v>
       </c>
@@ -4267,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>278</v>
       </c>
@@ -4275,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>279</v>
       </c>
@@ -4283,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>12</v>
       </c>
@@ -4291,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>280</v>
       </c>
@@ -4299,7 +4264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>281</v>
       </c>
@@ -4307,7 +4272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>282</v>
       </c>
@@ -4315,7 +4280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>283</v>
       </c>
@@ -4323,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>284</v>
       </c>
@@ -4331,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>285</v>
       </c>
@@ -4339,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>286</v>
       </c>
@@ -4347,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>287</v>
       </c>
@@ -4355,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>288</v>
       </c>
@@ -4363,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>12</v>
       </c>
@@ -4372,30 +4337,33 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B301" xr:uid="{FFAFBEF7-6E56-074A-937F-70352DFBD42B}"/>
+  <autoFilter ref="A1:B301"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="236.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>290</v>
       </c>
@@ -4403,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>291</v>
       </c>
@@ -4411,7 +4379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>292</v>
       </c>
@@ -4419,7 +4387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>293</v>
       </c>
@@ -4427,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>294</v>
       </c>
@@ -4435,7 +4403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>295</v>
       </c>
@@ -4443,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>296</v>
       </c>
@@ -4451,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>297</v>
       </c>
@@ -4459,7 +4427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>298</v>
       </c>
@@ -4467,7 +4435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>299</v>
       </c>
@@ -4475,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>300</v>
       </c>
@@ -4483,7 +4451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>301</v>
       </c>
@@ -4491,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>302</v>
       </c>
@@ -4499,7 +4467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>303</v>
       </c>
@@ -4507,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>304</v>
       </c>
@@ -4515,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>305</v>
       </c>
@@ -4523,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>306</v>
       </c>
@@ -4531,7 +4499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>307</v>
       </c>
@@ -4539,7 +4507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>308</v>
       </c>
@@ -4547,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>309</v>
       </c>
@@ -4555,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>310</v>
       </c>
@@ -4563,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>311</v>
       </c>
@@ -4571,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>312</v>
       </c>
@@ -4579,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>313</v>
       </c>
@@ -4587,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>314</v>
       </c>
@@ -4595,7 +4563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>315</v>
       </c>
@@ -4603,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>316</v>
       </c>
@@ -4611,7 +4579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>317</v>
       </c>
@@ -4619,7 +4587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>318</v>
       </c>
@@ -4627,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>319</v>
       </c>
@@ -4635,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>320</v>
       </c>
@@ -4643,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>321</v>
       </c>
@@ -4651,7 +4619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>322</v>
       </c>
@@ -4659,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>323</v>
       </c>
@@ -4667,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>324</v>
       </c>
@@ -4675,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>325</v>
       </c>
@@ -4683,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>326</v>
       </c>
@@ -4691,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>327</v>
       </c>
@@ -4699,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>328</v>
       </c>
@@ -4707,7 +4675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>329</v>
       </c>
@@ -4715,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>330</v>
       </c>
@@ -4723,7 +4691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>331</v>
       </c>
@@ -4731,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>332</v>
       </c>
@@ -4739,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>333</v>
       </c>
@@ -4747,7 +4715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>334</v>
       </c>
@@ -4755,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>335</v>
       </c>
@@ -4763,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>163</v>
       </c>
@@ -4771,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>336</v>
       </c>
@@ -4779,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>337</v>
       </c>
@@ -4787,7 +4755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>338</v>
       </c>
@@ -4795,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>339</v>
       </c>
@@ -4803,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>340</v>
       </c>
@@ -4811,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>341</v>
       </c>
@@ -4819,7 +4787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>342</v>
       </c>
@@ -4827,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>343</v>
       </c>
@@ -4835,7 +4803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>344</v>
       </c>
@@ -4843,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>345</v>
       </c>
@@ -4851,7 +4819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>346</v>
       </c>
@@ -4859,7 +4827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>347</v>
       </c>
@@ -4867,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>348</v>
       </c>
@@ -4875,7 +4843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>349</v>
       </c>
@@ -4883,7 +4851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>350</v>
       </c>
@@ -4891,7 +4859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>351</v>
       </c>
@@ -4899,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>352</v>
       </c>
@@ -4907,7 +4875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>353</v>
       </c>
@@ -4915,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>354</v>
       </c>
@@ -4923,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>355</v>
       </c>
@@ -4931,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>356</v>
       </c>
@@ -4939,7 +4907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>357</v>
       </c>
@@ -4947,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>358</v>
       </c>
@@ -4955,7 +4923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>359</v>
       </c>
@@ -4963,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>360</v>
       </c>
@@ -4971,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>361</v>
       </c>
@@ -4979,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>362</v>
       </c>
@@ -4987,7 +4955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>363</v>
       </c>
@@ -4995,7 +4963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>364</v>
       </c>
@@ -5003,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>365</v>
       </c>
@@ -5011,7 +4979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>366</v>
       </c>
@@ -5019,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>367</v>
       </c>
@@ -5027,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>368</v>
       </c>
@@ -5035,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>369</v>
       </c>
@@ -5043,7 +5011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>370</v>
       </c>
@@ -5051,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>371</v>
       </c>
@@ -5059,7 +5027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>372</v>
       </c>
@@ -5067,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>373</v>
       </c>
@@ -5075,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>374</v>
       </c>
@@ -5083,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>375</v>
       </c>
@@ -5091,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>376</v>
       </c>
@@ -5099,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>73</v>
       </c>
@@ -5107,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>377</v>
       </c>
@@ -5115,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>378</v>
       </c>
@@ -5123,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>379</v>
       </c>
@@ -5131,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>380</v>
       </c>
@@ -5139,7 +5107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>381</v>
       </c>
@@ -5147,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>382</v>
       </c>
@@ -5155,7 +5123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>383</v>
       </c>
@@ -5163,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>384</v>
       </c>
@@ -5171,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>385</v>
       </c>
@@ -5179,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>386</v>
       </c>
@@ -5187,7 +5155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>387</v>
       </c>
@@ -5195,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>388</v>
       </c>
@@ -5203,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>389</v>
       </c>
@@ -5211,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>390</v>
       </c>
@@ -5219,7 +5187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>391</v>
       </c>
@@ -5227,7 +5195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>392</v>
       </c>
@@ -5235,7 +5203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>393</v>
       </c>
@@ -5243,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>394</v>
       </c>
@@ -5251,7 +5219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>395</v>
       </c>
@@ -5259,7 +5227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>396</v>
       </c>
@@ -5267,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>397</v>
       </c>
@@ -5275,7 +5243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>398</v>
       </c>
@@ -5283,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>399</v>
       </c>
@@ -5291,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>400</v>
       </c>
@@ -5299,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>401</v>
       </c>
@@ -5307,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>402</v>
       </c>
@@ -5315,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>403</v>
       </c>
@@ -5323,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>404</v>
       </c>
@@ -5331,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>405</v>
       </c>
@@ -5339,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>406</v>
       </c>
@@ -5347,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>407</v>
       </c>
@@ -5355,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>408</v>
       </c>
@@ -5363,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>409</v>
       </c>
@@ -5371,7 +5339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>410</v>
       </c>
@@ -5379,7 +5347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>411</v>
       </c>
@@ -5387,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>412</v>
       </c>
@@ -5395,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>413</v>
       </c>
@@ -5403,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>414</v>
       </c>
@@ -5411,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>415</v>
       </c>
@@ -5419,7 +5387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>416</v>
       </c>
@@ -5427,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>417</v>
       </c>
@@ -5435,7 +5403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>418</v>
       </c>
@@ -5443,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>419</v>
       </c>
@@ -5451,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>420</v>
       </c>
@@ -5459,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>421</v>
       </c>
@@ -5467,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>422</v>
       </c>
@@ -5475,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>423</v>
       </c>
@@ -5483,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>424</v>
       </c>
@@ -5491,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>425</v>
       </c>
@@ -5499,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>426</v>
       </c>
@@ -5507,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>427</v>
       </c>
@@ -5515,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>428</v>
       </c>
@@ -5523,7 +5491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>429</v>
       </c>
@@ -5531,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>281</v>
       </c>
@@ -5539,7 +5507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>430</v>
       </c>
@@ -5547,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>431</v>
       </c>
@@ -5555,7 +5523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>432</v>
       </c>
@@ -5563,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>433</v>
       </c>
@@ -5571,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>434</v>
       </c>
@@ -5579,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>435</v>
       </c>
@@ -5587,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>436</v>
       </c>
@@ -5595,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>437</v>
       </c>
@@ -5603,7 +5571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>438</v>
       </c>
@@ -5611,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>439</v>
       </c>
@@ -5619,7 +5587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>440</v>
       </c>
@@ -5627,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>441</v>
       </c>
@@ -5635,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>442</v>
       </c>
@@ -5643,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>443</v>
       </c>
@@ -5651,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>444</v>
       </c>
@@ -5659,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -5667,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>445</v>
       </c>
@@ -5675,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>446</v>
       </c>
@@ -5683,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>447</v>
       </c>
@@ -5691,7 +5659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>448</v>
       </c>
@@ -5699,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>396</v>
       </c>
@@ -5707,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>449</v>
       </c>
@@ -5715,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>450</v>
       </c>
@@ -5723,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>451</v>
       </c>
@@ -5731,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>452</v>
       </c>
@@ -5739,7 +5707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>453</v>
       </c>
@@ -5747,7 +5715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>454</v>
       </c>
@@ -5755,7 +5723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>418</v>
       </c>
@@ -5763,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>455</v>
       </c>
@@ -5771,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>456</v>
       </c>
@@ -5779,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>457</v>
       </c>
@@ -5787,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>458</v>
       </c>
@@ -5795,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>459</v>
       </c>
@@ -5803,7 +5771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>460</v>
       </c>
@@ -5811,7 +5779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>461</v>
       </c>
@@ -5819,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>462</v>
       </c>
@@ -5827,7 +5795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>463</v>
       </c>
@@ -5835,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>464</v>
       </c>
@@ -5843,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>465</v>
       </c>
@@ -5851,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>466</v>
       </c>
@@ -5859,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>467</v>
       </c>
@@ -5867,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>468</v>
       </c>
@@ -5875,7 +5843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>469</v>
       </c>
@@ -5883,7 +5851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>470</v>
       </c>
@@ -5891,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>471</v>
       </c>
@@ -5899,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>472</v>
       </c>
@@ -5907,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>473</v>
       </c>
@@ -5915,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>474</v>
       </c>
@@ -5923,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>12</v>
       </c>
@@ -5931,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>475</v>
       </c>
@@ -5939,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>476</v>
       </c>
@@ -5947,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>477</v>
       </c>
@@ -5955,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>301</v>
       </c>
@@ -5963,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>478</v>
       </c>
@@ -5971,7 +5939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>479</v>
       </c>
@@ -5979,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>291</v>
       </c>
@@ -5987,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>480</v>
       </c>
@@ -5996,7 +5964,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B201" xr:uid="{CFD5181E-5C1D-7C42-B161-8B3CF1F9C4FB}"/>
+  <autoFilter ref="A1:B201"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>